--- a/Plan/Table/Live_Data/18.Chr_Class_table.xlsx
+++ b/Plan/Table/Live_Data/18.Chr_Class_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B90AD508-964A-4A92-B62D-E7AA4D40B6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CEE3F96-7F3D-4310-85F8-94F648CFBEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1AE28D68-0212-40D9-BD19-6083D72F9C1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{366F65E2-6185-48C3-B853-00CA0243EE25}"/>
   </bookViews>
   <sheets>
     <sheet name="18.Chr_Class_table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -47,58 +47,40 @@
     <t>name</t>
   </si>
   <si>
-    <t>description</t>
+    <t>Chr_Class_Warrior</t>
+  </si>
+  <si>
+    <t>전사</t>
+  </si>
+  <si>
+    <t>Chr_Class_Thief</t>
+  </si>
+  <si>
+    <t>도적</t>
+  </si>
+  <si>
+    <t>Chr_Class_Archer</t>
+  </si>
+  <si>
+    <t>궁수</t>
+  </si>
+  <si>
+    <t>Chr_Class_Magicion</t>
+  </si>
+  <si>
+    <t>마법사</t>
+  </si>
+  <si>
+    <t>Chr_Class_Cleric</t>
+  </si>
+  <si>
+    <t>성직자</t>
   </si>
   <si>
     <t>start_trait</t>
   </si>
   <si>
     <t>weapon_type</t>
-  </si>
-  <si>
-    <t>Chr_Class_Warrior</t>
-  </si>
-  <si>
-    <t>전사</t>
-  </si>
-  <si>
-    <t>방어중심</t>
-  </si>
-  <si>
-    <t>Chr_Class_Thief</t>
-  </si>
-  <si>
-    <t>도적</t>
-  </si>
-  <si>
-    <t>근거리물리중심</t>
-  </si>
-  <si>
-    <t>Chr_Class_Archer</t>
-  </si>
-  <si>
-    <t>궁수</t>
-  </si>
-  <si>
-    <t>원거리물리중심</t>
-  </si>
-  <si>
-    <t>Chr_Class_Magicion</t>
-  </si>
-  <si>
-    <t>마법사</t>
-  </si>
-  <si>
-    <t>원거리마법중심</t>
-  </si>
-  <si>
-    <t>Chr_Class_Cleric</t>
-  </si>
-  <si>
-    <t>성직자</t>
-  </si>
-  <si>
-    <t>회복중심</t>
   </si>
 </sst>
 </file>
@@ -481,16 +463,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AF37D1-2F2E-411B-BA55-117E4BBA5E39}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC83ECE-98A3-473A-A22A-D9F2B5A8B8B4}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,112 +483,94 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>16</v>
-      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
         <v>16</v>
       </c>
     </row>
